--- a/biology/Zoologie/Albatros_de_Buller/Albatros_de_Buller.xlsx
+++ b/biology/Zoologie/Albatros_de_Buller/Albatros_de_Buller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassarche bulleri
 L'Albatros de Buller (Thalassarche bulleri) est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet albatros pèse de 2,1 à 3,4 kg pour une envergure de 200 à 213 cm.
 La tête est gris pâle avec une zone blanchâtre sur le front et le sommet. Le bec est sombre avec une large bordure jaune. Le dessous des ailes est clair avec une bordure noire mieux délimitée que chez l'Albatros à tête grise.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros de Buller se reproduit sur les îles Chatham, Snares et Solander.
 </t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros de Buller doit son nom à Sir Walter Lawry Buller, naturaliste et juriste britannique né en Nouvelle-Zélande.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 Thalassarche bulleri bulleri (Albatros de Buller austral) ; sur les îles Snares et Solander ;
@@ -638,7 +658,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Todd F.S. &amp; Genevois F. (2006) Oiseaux &amp; Mammifères antarctiques et des îles de l'océan austral. Kameleo, Paris, 144 p.</t>
         </is>
